--- a/wifiSens/Schematic/BOM_with_prices.xlsx
+++ b/wifiSens/Schematic/BOM_with_prices.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="EK Übersicht" sheetId="1" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Pins" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1288,8 +1289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,7 +1815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
